--- a/Vent_2024.xlsx
+++ b/Vent_2024.xlsx
@@ -430,12 +430,10 @@
     </font>
     <font>
       <sz val="12.000000"/>
-      <color indexed="64"/>
       <name val="Arial Narrow"/>
     </font>
     <font>
       <sz val="8.000000"/>
-      <color indexed="64"/>
       <name val="Times New Roman"/>
     </font>
     <font>
@@ -919,7 +917,7 @@
     <xf fontId="18" fillId="0" borderId="8" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="19" fillId="32" borderId="9" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="10" numFmtId="0" xfId="0" applyBorder="1"/>
@@ -930,9 +928,7 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="1" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="1" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="33" borderId="0" numFmtId="1" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf fontId="0" fillId="34" borderId="0" numFmtId="1" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf fontId="0" fillId="35" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
@@ -996,7 +992,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="0" fillId="33" borderId="15" numFmtId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="1" xfId="0" applyNumberFormat="1"/>
     <xf fontId="10" fillId="0" borderId="0" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1611,8 +1606,12 @@
       <c r="C2" s="6">
         <v>7.733333</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
+      <c r="D2" s="7">
+        <v>2.5000000000000004</v>
+      </c>
+      <c r="E2" s="7">
+        <v>226.76290322580644</v>
+      </c>
     </row>
     <row r="3" ht="14.4">
       <c r="A3" s="5" t="s">
@@ -1624,8 +1623,12 @@
       <c r="C3" s="6">
         <v>6.9000000000000004</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
+      <c r="D3" s="7">
+        <v>2.0722580645161295</v>
+      </c>
+      <c r="E3" s="7">
+        <v>221.15548387096774</v>
+      </c>
     </row>
     <row r="4" ht="14.4">
       <c r="A4" s="5" t="s">
@@ -1637,8 +1640,12 @@
       <c r="C4" s="6">
         <v>6.6500000000000004</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
+      <c r="D4" s="7">
+        <v>2.5845161290322576</v>
+      </c>
+      <c r="E4" s="7">
+        <v>219.88548387096773</v>
+      </c>
     </row>
     <row r="5" ht="14.4">
       <c r="A5" s="5" t="s">
@@ -1650,8 +1657,12 @@
       <c r="C5" s="6">
         <v>8.0500000000000007</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
+      <c r="D5" s="7">
+        <v>2.8270967741935489</v>
+      </c>
+      <c r="E5" s="7">
+        <v>237.25967741935489</v>
+      </c>
     </row>
     <row r="6" ht="14.4">
       <c r="A6" s="5" t="s">
@@ -1663,8 +1674,12 @@
       <c r="C6" s="6">
         <v>9.4166670000000003</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
+      <c r="D6" s="7">
+        <v>2.3203225806451608</v>
+      </c>
+      <c r="E6" s="7">
+        <v>235.55290322580638</v>
+      </c>
     </row>
     <row r="7" ht="14.4">
       <c r="A7" s="5" t="s">
@@ -1676,8 +1691,12 @@
       <c r="C7" s="6">
         <v>9.5385000000000009</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
+      <c r="D7" s="7">
+        <v>2.0206451612903229</v>
+      </c>
+      <c r="E7" s="7">
+        <v>246.86516129032256</v>
+      </c>
     </row>
     <row r="8" ht="14.4" customHeight="1">
       <c r="A8" s="5" t="s">
@@ -1689,359 +1708,65 @@
       <c r="C8" s="6">
         <v>7.3833330000000004</v>
       </c>
-      <c r="D8"/>
-      <c r="E8"/>
-    </row>
-    <row r="9" ht="14.4" customHeight="1">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-    </row>
-    <row r="10" ht="14.4" customHeight="1">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-    </row>
-    <row r="11" ht="14.4" customHeight="1">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-    </row>
-    <row r="12" ht="14.4" customHeight="1">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-    </row>
-    <row r="13" ht="14.4" customHeight="1">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-    </row>
-    <row r="14" ht="14.4" customHeight="1">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-    </row>
-    <row r="15" ht="14.4" customHeight="1">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-    </row>
-    <row r="16" ht="14.4" customHeight="1">
-      <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-    </row>
-    <row r="17" ht="14.4" customHeight="1">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17"/>
-    </row>
-    <row r="18" ht="14.4" customHeight="1">
-      <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-    </row>
-    <row r="19" ht="14.4" customHeight="1">
-      <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-    </row>
-    <row r="20" ht="14.4" customHeight="1">
-      <c r="A20"/>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-    </row>
-    <row r="21" ht="14.4" customHeight="1">
-      <c r="A21"/>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-    </row>
-    <row r="22" ht="14.4" customHeight="1">
-      <c r="A22"/>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-    </row>
-    <row r="23" ht="14.4" customHeight="1">
-      <c r="A23"/>
-      <c r="B23"/>
-      <c r="C23"/>
-    </row>
-    <row r="24" ht="14.4" customHeight="1">
-      <c r="A24"/>
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
-    </row>
-    <row r="25" ht="14.4" customHeight="1">
-      <c r="A25"/>
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-    </row>
-    <row r="26" ht="14.4" customHeight="1">
-      <c r="A26"/>
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-    </row>
-    <row r="27" ht="14.4" customHeight="1">
-      <c r="A27"/>
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-    </row>
-    <row r="28" ht="14.4" customHeight="1">
-      <c r="A28"/>
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-    </row>
-    <row r="29" ht="14.4" customHeight="1">
-      <c r="A29"/>
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-    </row>
-    <row r="30" ht="14.4" customHeight="1">
-      <c r="A30"/>
-      <c r="B30"/>
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-    </row>
-    <row r="31" ht="14.4" customHeight="1">
-      <c r="A31"/>
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-    </row>
-    <row r="32" ht="14.4" customHeight="1">
-      <c r="A32"/>
-      <c r="B32"/>
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-    </row>
-    <row r="33" ht="14.4" customHeight="1">
-      <c r="A33"/>
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-    </row>
-    <row r="34" ht="14.4" customHeight="1">
-      <c r="A34"/>
-      <c r="B34"/>
-      <c r="C34"/>
-    </row>
-    <row r="35" ht="14.4" customHeight="1">
-      <c r="A35"/>
-      <c r="B35"/>
-      <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35"/>
-    </row>
-    <row r="36" ht="14.4" customHeight="1">
-      <c r="A36"/>
-      <c r="B36"/>
-      <c r="C36"/>
-      <c r="D36"/>
-      <c r="E36"/>
-    </row>
-    <row r="37" ht="14.4" customHeight="1">
-      <c r="A37"/>
-      <c r="B37"/>
-      <c r="C37"/>
-      <c r="D37"/>
-      <c r="E37"/>
-    </row>
-    <row r="38" ht="14.4" customHeight="1">
-      <c r="A38"/>
-      <c r="B38"/>
-      <c r="C38"/>
-      <c r="D38"/>
-      <c r="E38"/>
-    </row>
-    <row r="39" ht="14.4" customHeight="1">
-      <c r="A39"/>
-      <c r="B39"/>
-      <c r="C39"/>
-      <c r="D39"/>
-      <c r="E39"/>
-    </row>
-    <row r="40" ht="14.4" customHeight="1">
-      <c r="A40"/>
-      <c r="B40"/>
-      <c r="C40"/>
-      <c r="D40"/>
-      <c r="E40"/>
-    </row>
-    <row r="41" ht="14.4" customHeight="1">
-      <c r="A41"/>
-      <c r="B41"/>
-      <c r="C41"/>
-      <c r="D41"/>
-      <c r="E41"/>
-    </row>
-    <row r="42" ht="14.4" customHeight="1">
-      <c r="A42"/>
-      <c r="B42"/>
-      <c r="C42"/>
-      <c r="D42"/>
-      <c r="E42"/>
-    </row>
-    <row r="43" ht="14.4" customHeight="1">
-      <c r="A43"/>
-      <c r="B43"/>
-      <c r="C43"/>
-      <c r="D43"/>
-      <c r="E43"/>
-    </row>
-    <row r="44" ht="14.4" customHeight="1">
-      <c r="A44"/>
-      <c r="B44"/>
-      <c r="C44"/>
-      <c r="D44"/>
-      <c r="E44"/>
-    </row>
-    <row r="45" ht="14.4" customHeight="1">
-      <c r="A45"/>
-      <c r="B45"/>
-      <c r="C45"/>
-      <c r="D45"/>
-      <c r="E45"/>
-    </row>
-    <row r="46" ht="14.4" customHeight="1">
-      <c r="A46"/>
-      <c r="B46"/>
-      <c r="C46"/>
-    </row>
-    <row r="47" ht="14.4" customHeight="1">
-      <c r="A47"/>
-      <c r="B47"/>
-      <c r="C47"/>
-      <c r="D47"/>
-      <c r="E47"/>
-    </row>
-    <row r="48" ht="14.4" customHeight="1">
-      <c r="A48"/>
-      <c r="B48"/>
-      <c r="C48"/>
-      <c r="D48"/>
-      <c r="E48"/>
-    </row>
-    <row r="49" ht="14.4" customHeight="1">
-      <c r="A49"/>
-      <c r="B49"/>
-      <c r="C49"/>
-      <c r="D49"/>
-      <c r="E49"/>
-    </row>
-    <row r="50" ht="14.4" customHeight="1">
-      <c r="A50"/>
-      <c r="B50"/>
-      <c r="C50"/>
-      <c r="D50"/>
-      <c r="E50"/>
-    </row>
-    <row r="51" ht="14.4" customHeight="1">
-      <c r="A51"/>
-      <c r="B51"/>
-      <c r="C51"/>
-      <c r="D51"/>
-      <c r="E51"/>
-    </row>
-    <row r="52" ht="14.4" customHeight="1">
-      <c r="A52"/>
-      <c r="B52"/>
-      <c r="C52"/>
-      <c r="D52"/>
-      <c r="E52"/>
-    </row>
-    <row r="53" ht="14.4" customHeight="1">
-      <c r="A53"/>
-      <c r="B53"/>
-      <c r="C53"/>
-      <c r="D53"/>
-      <c r="E53"/>
-    </row>
-    <row r="54" ht="14.4" customHeight="1">
-      <c r="A54"/>
-      <c r="B54"/>
-      <c r="C54"/>
-      <c r="D54"/>
-      <c r="E54"/>
-    </row>
-    <row r="55" ht="14.4" customHeight="1">
-      <c r="A55"/>
-      <c r="B55"/>
-      <c r="C55"/>
-      <c r="D55"/>
-      <c r="E55"/>
-    </row>
-    <row r="56" ht="14.4" customHeight="1">
-      <c r="A56"/>
-      <c r="B56"/>
-      <c r="C56"/>
-      <c r="D56"/>
-      <c r="E56"/>
-    </row>
-    <row r="57" ht="14.4" customHeight="1">
-      <c r="A57"/>
-      <c r="B57"/>
-      <c r="C57"/>
-      <c r="D57"/>
-      <c r="E57"/>
-    </row>
-    <row r="58" ht="14.4" customHeight="1">
-      <c r="A58"/>
-      <c r="B58"/>
-      <c r="C58"/>
-      <c r="D58"/>
-      <c r="E58"/>
-    </row>
-    <row r="59" ht="14.4" customHeight="1">
-      <c r="A59"/>
-      <c r="B59"/>
-      <c r="C59"/>
-    </row>
-    <row r="60" ht="14.4" customHeight="1">
-      <c r="A60"/>
-      <c r="B60"/>
-      <c r="C60"/>
-    </row>
+      <c r="D8" s="8">
+        <v>1.0538709677419358</v>
+      </c>
+      <c r="E8" s="8">
+        <v>224.14129032258069</v>
+      </c>
+    </row>
+    <row r="9" ht="14.4" customHeight="1"/>
+    <row r="10" ht="14.4" customHeight="1"/>
+    <row r="11" ht="14.4" customHeight="1"/>
+    <row r="12" ht="14.4" customHeight="1"/>
+    <row r="13" ht="14.4" customHeight="1"/>
+    <row r="14" ht="14.4" customHeight="1"/>
+    <row r="15" ht="14.4" customHeight="1"/>
+    <row r="16" ht="14.4" customHeight="1"/>
+    <row r="17" ht="14.4" customHeight="1"/>
+    <row r="18" ht="14.4" customHeight="1"/>
+    <row r="19" ht="14.4" customHeight="1"/>
+    <row r="20" ht="14.4" customHeight="1"/>
+    <row r="21" ht="14.4" customHeight="1"/>
+    <row r="22" ht="14.4" customHeight="1"/>
+    <row r="23" ht="14.4" customHeight="1"/>
+    <row r="24" ht="14.4" customHeight="1"/>
+    <row r="25" ht="14.4" customHeight="1"/>
+    <row r="26" ht="14.4" customHeight="1"/>
+    <row r="27" ht="14.4" customHeight="1"/>
+    <row r="28" ht="14.4" customHeight="1"/>
+    <row r="29" ht="14.4" customHeight="1"/>
+    <row r="30" ht="14.4" customHeight="1"/>
+    <row r="31" ht="14.4" customHeight="1"/>
+    <row r="32" ht="14.4" customHeight="1"/>
+    <row r="33" ht="14.4" customHeight="1"/>
+    <row r="34" ht="14.4" customHeight="1"/>
+    <row r="35" ht="14.4" customHeight="1"/>
+    <row r="36" ht="14.4" customHeight="1"/>
+    <row r="37" ht="14.4" customHeight="1"/>
+    <row r="38" ht="14.4" customHeight="1"/>
+    <row r="39" ht="14.4" customHeight="1"/>
+    <row r="40" ht="14.4" customHeight="1"/>
+    <row r="41" ht="14.4" customHeight="1"/>
+    <row r="42" ht="14.4" customHeight="1"/>
+    <row r="43" ht="14.4" customHeight="1"/>
+    <row r="44" ht="14.4" customHeight="1"/>
+    <row r="45" ht="14.4" customHeight="1"/>
+    <row r="46" ht="14.4" customHeight="1"/>
+    <row r="47" ht="14.4" customHeight="1"/>
+    <row r="48" ht="14.4" customHeight="1"/>
+    <row r="49" ht="14.4" customHeight="1"/>
+    <row r="50" ht="14.4" customHeight="1"/>
+    <row r="51" ht="14.4" customHeight="1"/>
+    <row r="52" ht="14.4" customHeight="1"/>
+    <row r="53" ht="14.4" customHeight="1"/>
+    <row r="54" ht="14.4" customHeight="1"/>
+    <row r="55" ht="14.4" customHeight="1"/>
+    <row r="56" ht="14.4" customHeight="1"/>
+    <row r="57" ht="14.4" customHeight="1"/>
+    <row r="58" ht="14.4" customHeight="1"/>
+    <row r="59" ht="14.4" customHeight="1"/>
+    <row r="60" ht="14.4" customHeight="1"/>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
@@ -2705,13 +2430,13 @@
       <c r="C16" s="1">
         <v>9.5500000000000007</v>
       </c>
-      <c r="D16" s="40"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
       <c r="H16" s="18"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="42"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="41"/>
       <c r="K16" s="21"/>
       <c r="L16" s="1"/>
       <c r="M16" s="12"/>
@@ -2728,13 +2453,13 @@
       <c r="C17" s="1">
         <v>8.3000000000000007</v>
       </c>
-      <c r="D17" s="40"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
       <c r="G17" s="1"/>
       <c r="H17" s="18"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="42"/>
+      <c r="J17" s="41"/>
       <c r="K17" s="21"/>
       <c r="L17" s="1"/>
       <c r="M17" s="12"/>
@@ -2751,13 +2476,13 @@
       <c r="C18" s="1">
         <v>8.4100000000000001</v>
       </c>
-      <c r="D18" s="40"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="43"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="42"/>
       <c r="H18" s="18"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="42"/>
+      <c r="J18" s="41"/>
       <c r="K18" s="21"/>
       <c r="L18" s="1"/>
       <c r="M18" s="12"/>
@@ -2774,13 +2499,13 @@
       <c r="C19" s="1">
         <v>9.6999999999999993</v>
       </c>
-      <c r="D19" s="40"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="43"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="42"/>
       <c r="H19" s="18"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="42"/>
+      <c r="J19" s="41"/>
       <c r="K19" s="21"/>
       <c r="L19" s="1"/>
       <c r="M19" s="12"/>
@@ -2797,13 +2522,13 @@
       <c r="C20" s="1">
         <v>9.1500000000000004</v>
       </c>
-      <c r="D20" s="40"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="43"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="42"/>
       <c r="H20" s="18"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="42"/>
+      <c r="J20" s="41"/>
       <c r="K20" s="21"/>
       <c r="L20" s="1"/>
       <c r="M20" s="12"/>
@@ -2820,13 +2545,13 @@
       <c r="C21" s="1">
         <v>8.4399999999999995</v>
       </c>
-      <c r="D21" s="40"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="43"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="42"/>
       <c r="H21" s="18"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="42"/>
+      <c r="J21" s="41"/>
       <c r="K21" s="21"/>
       <c r="L21" s="1"/>
       <c r="M21" s="12"/>
@@ -2843,13 +2568,13 @@
       <c r="C22" s="1">
         <v>7.1900000000000004</v>
       </c>
-      <c r="D22" s="40"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="43"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="42"/>
       <c r="H22" s="18"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="42"/>
+      <c r="J22" s="41"/>
       <c r="K22" s="21"/>
       <c r="L22" s="1"/>
       <c r="M22" s="12"/>
@@ -2866,13 +2591,13 @@
       <c r="C23" s="1">
         <v>6.5</v>
       </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="43"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="42"/>
       <c r="H23" s="18"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="42"/>
+      <c r="J23" s="41"/>
       <c r="K23" s="21"/>
       <c r="L23" s="1"/>
       <c r="M23" s="12"/>
@@ -2889,18 +2614,18 @@
       <c r="C24" s="1">
         <v>8.4000000000000004</v>
       </c>
-      <c r="D24" s="40"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="43"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="42"/>
       <c r="H24" s="18"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="42"/>
+      <c r="J24" s="41"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="24"/>
-      <c r="O24" s="44"/>
+      <c r="O24" s="43"/>
     </row>
     <row r="25" ht="14.4">
       <c r="A25" s="14" t="s">
@@ -2912,18 +2637,18 @@
       <c r="C25" s="1">
         <v>7.7833329999999998</v>
       </c>
-      <c r="D25" s="40"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="43"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="42"/>
       <c r="H25" s="18"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="42"/>
+      <c r="J25" s="41"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="24"/>
-      <c r="O25" s="44"/>
+      <c r="O25" s="43"/>
     </row>
     <row r="26" ht="14.4">
       <c r="A26" s="14" t="s">
@@ -2935,18 +2660,18 @@
       <c r="C26" s="1">
         <v>7.8666669999999996</v>
       </c>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
       <c r="G26" s="1"/>
       <c r="H26" s="18"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="42"/>
+      <c r="J26" s="41"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="24"/>
-      <c r="O26" s="44"/>
+      <c r="O26" s="43"/>
     </row>
     <row r="27" ht="14.4">
       <c r="A27" s="14" t="s">
@@ -2958,18 +2683,18 @@
       <c r="C27" s="1">
         <v>7.4666670000000002</v>
       </c>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
       <c r="G27" s="1"/>
       <c r="H27" s="18"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="42"/>
+      <c r="J27" s="41"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="24"/>
-      <c r="O27" s="44"/>
+      <c r="O27" s="43"/>
     </row>
     <row r="28" ht="14.4">
       <c r="A28" s="14" t="s">
@@ -2981,41 +2706,41 @@
       <c r="C28" s="1">
         <v>9.5833329999999997</v>
       </c>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
       <c r="G28" s="1"/>
       <c r="H28" s="18"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="42"/>
+      <c r="J28" s="41"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="24"/>
-      <c r="O28" s="44"/>
+      <c r="O28" s="43"/>
     </row>
     <row r="29" ht="14.4">
       <c r="A29" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="45">
+      <c r="B29" s="44">
         <v>-5.1500000000000004</v>
       </c>
-      <c r="C29" s="45">
+      <c r="C29" s="44">
         <v>9.0666670000000007</v>
       </c>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
       <c r="G29" s="1"/>
       <c r="H29" s="18"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="42"/>
+      <c r="J29" s="41"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="24"/>
-      <c r="O29" s="44"/>
+      <c r="O29" s="43"/>
     </row>
     <row r="30" ht="14.4">
       <c r="A30" s="14" t="s">
@@ -3027,18 +2752,18 @@
       <c r="C30" s="1">
         <v>6.3666669999999996</v>
       </c>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
       <c r="G30" s="1"/>
       <c r="H30" s="18"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="42"/>
+      <c r="J30" s="41"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="24"/>
-      <c r="O30" s="44"/>
+      <c r="O30" s="43"/>
     </row>
     <row r="31" ht="14.4">
       <c r="A31" s="14" t="s">
@@ -3050,18 +2775,18 @@
       <c r="C31" s="1">
         <v>9.3166670000000007</v>
       </c>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
       <c r="G31" s="1"/>
       <c r="H31" s="18"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="42"/>
+      <c r="J31" s="41"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="24"/>
-      <c r="O31" s="44"/>
+      <c r="O31" s="43"/>
     </row>
     <row r="32" ht="14.4">
       <c r="A32" s="14" t="s">
@@ -3073,21 +2798,21 @@
       <c r="C32" s="1">
         <v>7.3833330000000004</v>
       </c>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
       <c r="G32" s="1"/>
       <c r="H32" s="18"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="42"/>
+      <c r="J32" s="41"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="24"/>
-      <c r="O32" s="44"/>
+      <c r="O32" s="43"/>
     </row>
     <row r="33" ht="14.4">
-      <c r="A33" s="46" t="s">
+      <c r="A33" s="45" t="s">
         <v>55</v>
       </c>
       <c r="B33" s="1">
@@ -3096,41 +2821,41 @@
       <c r="C33" s="1">
         <v>5.8833330000000004</v>
       </c>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
       <c r="G33" s="1"/>
       <c r="H33" s="18"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="42"/>
+      <c r="J33" s="41"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="24"/>
-      <c r="O33" s="44"/>
+      <c r="O33" s="43"/>
     </row>
     <row r="34" ht="14.4">
       <c r="A34" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="47">
+      <c r="B34" s="46">
         <v>-5.75</v>
       </c>
-      <c r="C34" s="47">
+      <c r="C34" s="46">
         <v>6.983333</v>
       </c>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
       <c r="G34" s="1"/>
       <c r="H34" s="18"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="42"/>
+      <c r="J34" s="41"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="24"/>
-      <c r="O34" s="44"/>
+      <c r="O34" s="43"/>
     </row>
     <row r="35" ht="14.4">
       <c r="A35" s="14" t="s">
@@ -3142,18 +2867,18 @@
       <c r="C35" s="1">
         <v>6.483333</v>
       </c>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
       <c r="G35" s="1"/>
       <c r="H35" s="18"/>
       <c r="I35" s="1"/>
-      <c r="J35" s="42"/>
+      <c r="J35" s="41"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="24"/>
-      <c r="O35" s="44"/>
+      <c r="O35" s="43"/>
     </row>
     <row r="36" ht="14.4">
       <c r="A36" s="14" t="s">
@@ -3165,18 +2890,18 @@
       <c r="C36" s="1">
         <v>5.7833329999999998</v>
       </c>
-      <c r="D36" s="40"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
       <c r="G36" s="1"/>
       <c r="H36" s="18"/>
       <c r="I36" s="1"/>
-      <c r="J36" s="42"/>
+      <c r="J36" s="41"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="24"/>
-      <c r="O36" s="44"/>
+      <c r="O36" s="43"/>
     </row>
     <row r="37" ht="14.4">
       <c r="A37" s="14" t="s">
@@ -3188,18 +2913,18 @@
       <c r="C37" s="1">
         <v>5.7000000000000002</v>
       </c>
-      <c r="D37" s="40"/>
-      <c r="E37" s="40"/>
-      <c r="F37" s="40"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
       <c r="G37" s="1"/>
       <c r="H37" s="18"/>
       <c r="I37" s="1"/>
-      <c r="J37" s="42"/>
+      <c r="J37" s="41"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="24"/>
-      <c r="O37" s="44"/>
+      <c r="O37" s="43"/>
     </row>
     <row r="38" ht="14.4">
       <c r="A38" s="14" t="s">
@@ -3211,18 +2936,18 @@
       <c r="C38" s="1">
         <v>7.0666669999999998</v>
       </c>
-      <c r="D38" s="40"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
       <c r="G38" s="1"/>
       <c r="H38" s="18"/>
       <c r="I38" s="1"/>
-      <c r="J38" s="42"/>
+      <c r="J38" s="41"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="24"/>
-      <c r="O38" s="44"/>
+      <c r="O38" s="43"/>
     </row>
     <row r="39" ht="14.4">
       <c r="A39" s="14" t="s">
@@ -3234,18 +2959,18 @@
       <c r="C39" s="1">
         <v>6.4500000000000002</v>
       </c>
-      <c r="D39" s="40"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="40"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
       <c r="G39" s="1"/>
       <c r="H39" s="18"/>
       <c r="I39" s="1"/>
-      <c r="J39" s="42"/>
+      <c r="J39" s="41"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="24"/>
-      <c r="O39" s="44"/>
+      <c r="O39" s="43"/>
     </row>
     <row r="40" ht="14.4">
       <c r="A40" s="14" t="s">
@@ -3257,18 +2982,18 @@
       <c r="C40" s="1">
         <v>6.6500000000000004</v>
       </c>
-      <c r="D40" s="40"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="40"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
       <c r="G40" s="1"/>
       <c r="H40" s="18"/>
       <c r="I40" s="1"/>
-      <c r="J40" s="42"/>
+      <c r="J40" s="41"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="24"/>
-      <c r="O40" s="44"/>
+      <c r="O40" s="43"/>
     </row>
     <row r="41" ht="14.4">
       <c r="A41" s="14" t="s">
@@ -3280,18 +3005,18 @@
       <c r="C41" s="1">
         <v>5.4666670000000002</v>
       </c>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
       <c r="G41" s="1"/>
       <c r="H41" s="18"/>
       <c r="I41" s="1"/>
-      <c r="J41" s="42"/>
+      <c r="J41" s="41"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="24"/>
-      <c r="O41" s="44"/>
+      <c r="O41" s="43"/>
     </row>
     <row r="42" ht="14.4">
       <c r="A42" s="14" t="s">
@@ -3303,18 +3028,18 @@
       <c r="C42" s="1">
         <v>5.2833329999999998</v>
       </c>
-      <c r="D42" s="40"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="40"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
       <c r="G42" s="1"/>
       <c r="H42" s="18"/>
       <c r="I42" s="1"/>
-      <c r="J42" s="42"/>
+      <c r="J42" s="41"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="24"/>
-      <c r="O42" s="44"/>
+      <c r="O42" s="43"/>
     </row>
     <row r="43" ht="14.4">
       <c r="A43" s="14" t="s">
@@ -3326,18 +3051,18 @@
       <c r="C43" s="1">
         <v>6.6333330000000004</v>
       </c>
-      <c r="D43" s="40"/>
-      <c r="E43" s="40"/>
-      <c r="F43" s="40"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
       <c r="G43" s="1"/>
       <c r="H43" s="18"/>
       <c r="I43" s="1"/>
-      <c r="J43" s="42"/>
+      <c r="J43" s="41"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="24"/>
-      <c r="O43" s="44"/>
+      <c r="O43" s="43"/>
     </row>
     <row r="44" ht="14.4">
       <c r="A44" s="14" t="s">
@@ -3349,18 +3074,18 @@
       <c r="C44" s="1">
         <v>6.5833329999999997</v>
       </c>
-      <c r="D44" s="40"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="40"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
       <c r="G44" s="1"/>
       <c r="H44" s="18"/>
       <c r="I44" s="1"/>
-      <c r="J44" s="42"/>
+      <c r="J44" s="41"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="24"/>
-      <c r="O44" s="44"/>
+      <c r="O44" s="43"/>
     </row>
     <row r="45" ht="14.4">
       <c r="A45" s="14" t="s">
@@ -3372,18 +3097,18 @@
       <c r="C45" s="1">
         <v>5.2999999999999998</v>
       </c>
-      <c r="D45" s="40"/>
-      <c r="E45" s="40"/>
-      <c r="F45" s="40"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
       <c r="G45" s="1"/>
       <c r="H45" s="18"/>
       <c r="I45" s="1"/>
-      <c r="J45" s="42"/>
+      <c r="J45" s="41"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="24"/>
-      <c r="O45" s="44"/>
+      <c r="O45" s="43"/>
     </row>
     <row r="46" ht="14.4">
       <c r="A46" s="14" t="s">
@@ -3395,18 +3120,18 @@
       <c r="C46" s="1">
         <v>5.3666669999999996</v>
       </c>
-      <c r="D46" s="40"/>
-      <c r="E46" s="40"/>
-      <c r="F46" s="40"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
       <c r="G46" s="1"/>
       <c r="H46" s="18"/>
       <c r="I46" s="1"/>
-      <c r="J46" s="42"/>
+      <c r="J46" s="41"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="N46" s="24"/>
-      <c r="O46" s="44"/>
+      <c r="O46" s="43"/>
     </row>
     <row r="47" ht="14.4">
       <c r="A47" s="14" t="s">
@@ -3418,18 +3143,18 @@
       <c r="C47" s="1">
         <v>5.1333330000000004</v>
       </c>
-      <c r="D47" s="40"/>
-      <c r="E47" s="40"/>
-      <c r="F47" s="40"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
       <c r="G47" s="1"/>
       <c r="H47" s="18"/>
       <c r="I47" s="1"/>
-      <c r="J47" s="42"/>
+      <c r="J47" s="41"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
       <c r="N47" s="24"/>
-      <c r="O47" s="44"/>
+      <c r="O47" s="43"/>
     </row>
     <row r="48" ht="14.4">
       <c r="A48" s="14" t="s">
@@ -3441,193 +3166,193 @@
       <c r="C48" s="1">
         <v>5.0833329999999997</v>
       </c>
-      <c r="D48" s="40"/>
-      <c r="E48" s="40"/>
-      <c r="F48" s="40"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
       <c r="G48" s="1"/>
       <c r="H48" s="18"/>
       <c r="I48" s="1"/>
-      <c r="J48" s="42"/>
+      <c r="J48" s="41"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="24"/>
-      <c r="O48" s="44"/>
+      <c r="O48" s="43"/>
     </row>
     <row r="49" ht="14.4">
       <c r="A49" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B49" s="45">
+      <c r="B49" s="44">
         <v>-3.3833329999999999</v>
       </c>
-      <c r="C49" s="45">
+      <c r="C49" s="44">
         <v>6.4333330000000002</v>
       </c>
-      <c r="D49" s="40"/>
-      <c r="E49" s="40"/>
-      <c r="F49" s="40"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
       <c r="G49" s="1"/>
       <c r="H49" s="18"/>
       <c r="I49" s="1"/>
-      <c r="J49" s="42"/>
+      <c r="J49" s="41"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="24"/>
-      <c r="O49" s="44"/>
+      <c r="O49" s="43"/>
     </row>
     <row r="50" ht="14.4">
-      <c r="A50" s="48" t="s">
+      <c r="A50" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="B50" s="48">
+      <c r="B50" s="47">
         <v>-6.25</v>
       </c>
-      <c r="C50" s="48">
+      <c r="C50" s="47">
         <v>8.75</v>
       </c>
     </row>
     <row r="51" ht="14.4">
-      <c r="A51" s="48" t="s">
+      <c r="A51" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="B51" s="48">
+      <c r="B51" s="47">
         <v>-7.233333</v>
       </c>
-      <c r="C51" s="48">
+      <c r="C51" s="47">
         <v>8.966666</v>
       </c>
     </row>
     <row r="52" ht="14.4">
-      <c r="A52" s="48" t="s">
+      <c r="A52" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="B52" s="48">
+      <c r="B52" s="47">
         <v>-3.3166669999999998</v>
       </c>
-      <c r="C52" s="48">
+      <c r="C52" s="47">
         <v>9.8166670000000007</v>
       </c>
     </row>
     <row r="53" ht="14.4">
-      <c r="A53" s="48" t="s">
+      <c r="A53" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="B53" s="48">
+      <c r="B53" s="47">
         <v>-5.9000000000000004</v>
       </c>
-      <c r="C53" s="48">
+      <c r="C53" s="47">
         <v>10.01667</v>
       </c>
     </row>
     <row r="54" ht="14.4">
-      <c r="A54" s="48" t="s">
+      <c r="A54" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="B54" s="48">
+      <c r="B54" s="47">
         <v>-5.1500000000000004</v>
       </c>
-      <c r="C54" s="48">
+      <c r="C54" s="47">
         <v>9.966666</v>
       </c>
     </row>
     <row r="55" ht="14.4">
-      <c r="A55" s="48" t="s">
+      <c r="A55" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="B55" s="48">
+      <c r="B55" s="47">
         <v>-4.99305555555555</v>
       </c>
-      <c r="C55" s="48">
+      <c r="C55" s="47">
         <v>7.97694444444444</v>
       </c>
     </row>
     <row r="56" ht="14.4">
-      <c r="A56" s="48" t="s">
+      <c r="A56" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="B56" s="48">
+      <c r="B56" s="47">
         <v>-7.4000000000000004</v>
       </c>
-      <c r="C56" s="48">
+      <c r="C56" s="47">
         <v>5.8666669999999996</v>
       </c>
     </row>
     <row r="57" ht="14.4">
-      <c r="A57" s="48" t="s">
+      <c r="A57" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="B57" s="48">
+      <c r="B57" s="47">
         <v>-6.4666670000000002</v>
       </c>
-      <c r="C57" s="48">
+      <c r="C57" s="47">
         <v>7.3666669999999996</v>
       </c>
     </row>
     <row r="58" ht="14.4">
-      <c r="A58" s="48" t="s">
+      <c r="A58" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="B58" s="48">
+      <c r="B58" s="47">
         <v>-5.6223299999999998</v>
       </c>
-      <c r="C58" s="48">
+      <c r="C58" s="47">
         <v>10.19502</v>
       </c>
     </row>
     <row r="59" ht="14.4">
-      <c r="A59" s="48" t="s">
+      <c r="A59" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="B59" s="48">
+      <c r="B59" s="47">
         <v>-5.2254300000000002</v>
       </c>
-      <c r="C59" s="48">
+      <c r="C59" s="47">
         <v>7.1573000000000002</v>
       </c>
     </row>
     <row r="60" ht="14.4">
-      <c r="A60" s="48" t="s">
+      <c r="A60" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="B60" s="48">
+      <c r="B60" s="47">
         <v>-4.0113690000000002</v>
       </c>
-      <c r="C60" s="48">
+      <c r="C60" s="47">
         <v>7.2986899999999997</v>
       </c>
     </row>
     <row r="61" ht="14.4">
-      <c r="A61" s="48" t="s">
+      <c r="A61" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="B61" s="48">
+      <c r="B61" s="47">
         <v>-5.7688699999999997</v>
       </c>
-      <c r="C61" s="48">
+      <c r="C61" s="47">
         <v>9.0731800000000007</v>
       </c>
     </row>
     <row r="62" ht="14.4">
-      <c r="A62" s="48" t="s">
+      <c r="A62" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="B62" s="48">
+      <c r="B62" s="47">
         <v>-6.4097200000000001</v>
       </c>
-      <c r="C62" s="48">
+      <c r="C62" s="47">
         <v>9.8968699999999998</v>
       </c>
     </row>
     <row r="63" ht="14.4">
-      <c r="A63" s="48" t="s">
+      <c r="A63" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="B63" s="48">
+      <c r="B63" s="47">
         <v>-3.3748</v>
       </c>
-      <c r="C63" s="48">
+      <c r="C63" s="47">
         <v>9.1510999999999996</v>
       </c>
     </row>
